--- a/SRS/Trazabilidad/SRS(Alimnova)TrazabilidadRequerimientosV1.7.0.xlsx
+++ b/SRS/Trazabilidad/SRS(Alimnova)TrazabilidadRequerimientosV1.7.0.xlsx
@@ -1514,7 +1514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1697,9 +1697,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1742,6 +1739,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2009,6 +2009,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2386,14 +2407,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L126" sqref="L126"/>
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P126" sqref="P126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="10.88671875" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" customWidth="1"/>
     <col min="6" max="7" width="12.44140625" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" customWidth="1"/>
     <col min="15" max="15" width="13.44140625" customWidth="1"/>
@@ -2435,7 +2457,7 @@
       </c>
       <c r="E2" s="91"/>
       <c r="F2" s="92"/>
-      <c r="G2" s="80"/>
+      <c r="G2" s="79"/>
       <c r="H2" s="90" t="s">
         <v>207</v>
       </c>
@@ -2483,7 +2505,7 @@
     <row r="4" spans="1:20" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A4" s="85"/>
       <c r="B4" s="104"/>
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="78" t="s">
         <v>213</v>
       </c>
       <c r="D4" s="43" t="s">
@@ -6062,7 +6084,7 @@
       <c r="T69" s="50"/>
     </row>
     <row r="70" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A70" s="83" t="s">
+      <c r="A70" s="82" t="s">
         <v>76</v>
       </c>
       <c r="B70" s="14">
@@ -6112,7 +6134,7 @@
       <c r="T70" s="50"/>
     </row>
     <row r="71" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A71" s="83" t="s">
+      <c r="A71" s="82" t="s">
         <v>77</v>
       </c>
       <c r="B71" s="14">
@@ -6162,7 +6184,7 @@
       <c r="T71" s="50"/>
     </row>
     <row r="72" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A72" s="83" t="s">
+      <c r="A72" s="82" t="s">
         <v>78</v>
       </c>
       <c r="B72" s="14">
@@ -6212,7 +6234,7 @@
       <c r="T72" s="50"/>
     </row>
     <row r="73" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A73" s="83" t="s">
+      <c r="A73" s="82" t="s">
         <v>79</v>
       </c>
       <c r="B73" s="14">
@@ -6318,7 +6340,7 @@
       <c r="T74" s="50"/>
     </row>
     <row r="75" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A75" s="83" t="s">
+      <c r="A75" s="82" t="s">
         <v>81</v>
       </c>
       <c r="B75" s="14">
@@ -8948,7 +8970,7 @@
       <c r="T119" s="50"/>
     </row>
     <row r="120" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A120" s="82" t="s">
+      <c r="A120" s="81" t="s">
         <v>126</v>
       </c>
       <c r="B120" s="14">
@@ -9188,7 +9210,7 @@
       </c>
     </row>
     <row r="124" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A124" s="81" t="s">
+      <c r="A124" s="80" t="s">
         <v>130</v>
       </c>
       <c r="B124" s="14">
@@ -9283,13 +9305,13 @@
       <c r="J125" s="53">
         <v>40305</v>
       </c>
-      <c r="K125" s="46">
+      <c r="K125" s="175">
         <v>20</v>
       </c>
-      <c r="L125" s="49">
+      <c r="L125" s="176">
         <v>40306</v>
       </c>
-      <c r="M125" s="46">
+      <c r="M125" s="175">
         <v>0</v>
       </c>
       <c r="N125" s="50"/>
@@ -9328,17 +9350,17 @@
         <v>218</v>
       </c>
       <c r="I126" s="106"/>
-      <c r="J126" s="68">
+      <c r="J126" s="173">
         <f>(G126*100)/C126</f>
         <v>73.070866141732282</v>
       </c>
-      <c r="K126" s="46"/>
-      <c r="L126" s="50"/>
-      <c r="M126" s="46"/>
-      <c r="N126" s="50"/>
-      <c r="O126" s="46"/>
-      <c r="P126" s="50"/>
-      <c r="Q126" s="46"/>
+      <c r="K126" s="174"/>
+      <c r="L126" s="174"/>
+      <c r="M126" s="174"/>
+      <c r="N126" s="174"/>
+      <c r="O126" s="178"/>
+      <c r="P126" s="179"/>
+      <c r="Q126" s="83"/>
       <c r="R126" s="50"/>
       <c r="S126" s="46"/>
       <c r="T126" s="50"/>
@@ -9358,9 +9380,9 @@
       <c r="H127" s="87"/>
       <c r="I127" s="87"/>
       <c r="J127" s="87"/>
-      <c r="K127" s="87"/>
-      <c r="L127" s="87"/>
-      <c r="M127" s="87"/>
+      <c r="K127" s="177"/>
+      <c r="L127" s="177"/>
+      <c r="M127" s="177"/>
       <c r="N127" s="87"/>
       <c r="O127" s="87"/>
       <c r="P127" s="87"/>
@@ -9377,53 +9399,53 @@
       <c r="C128" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="D128" s="78" t="s">
+      <c r="D128" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="E128" s="78" t="s">
+      <c r="E128" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="F128" s="78" t="s">
+      <c r="F128" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="G128" s="78"/>
-      <c r="H128" s="78" t="s">
+      <c r="G128" s="77"/>
+      <c r="H128" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="I128" s="78" t="s">
+      <c r="I128" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="J128" s="78" t="s">
+      <c r="J128" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="K128" s="78" t="s">
+      <c r="K128" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="L128" s="78" t="s">
+      <c r="L128" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="M128" s="78" t="s">
+      <c r="M128" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="N128" s="78" t="s">
+      <c r="N128" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="O128" s="78" t="s">
+      <c r="O128" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="P128" s="78" t="s">
+      <c r="P128" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="Q128" s="78" t="s">
+      <c r="Q128" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="R128" s="78" t="s">
+      <c r="R128" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="S128" s="78" t="s">
+      <c r="S128" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="T128" s="78" t="s">
+      <c r="T128" s="77" t="s">
         <v>4</v>
       </c>
     </row>
@@ -11127,7 +11149,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:K13 K15:K23 K25:K26 K28:K43 K45:K48 K50:K55 K57:K62 K65:K75 K81:K86 K88:K90 K92:K107 K119 K121:K122 K124:K126 K129:K159">
+  <conditionalFormatting sqref="K6:K13 K15:K23 K25:K26 K28:K43 K45:K48 K50:K55 K57:K62 K65:K75 K81:K86 K88:K90 K92:K107 K119 K121:K122 K129:K159 K124:K125">
     <cfRule type="dataBar" priority="51">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -11136,7 +11158,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M6:M13 M15:M23 M25:M26 M28:M43 M45:M48 M50:M55 M57:M62 M65:M75 M81:M86 M88:M90 M92:M107 M119 M121:M122 M124:M126 M129:M159">
+  <conditionalFormatting sqref="M6:M13 M15:M23 M25:M26 M28:M43 M45:M48 M50:M55 M57:M62 M65:M75 M81:M86 M88:M90 M92:M107 M119 M121:M122 M129:M159 M124:M125">
     <cfRule type="dataBar" priority="50">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -11145,7 +11167,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O6:O13 O15:O23 O25:O26 O28:O43 O45:O48 O50:O55 O57:O62 O65:O75 O81:O86 O88:O90 O92:O107 O119 O121:O122 O124:O126 O129:O159">
+  <conditionalFormatting sqref="O6:O13 O15:O23 O25:O26 O28:O43 O45:O48 O50:O55 O57:O62 O65:O75 O81:O86 O88:O90 O92:O107 O119 O121:O122 O129:O159 O124:O125">
     <cfRule type="dataBar" priority="49">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -29894,18 +29916,18 @@
       <c r="B105" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="C105" s="72" t="s">
+      <c r="C105" s="71" t="s">
         <v>267</v>
       </c>
-      <c r="D105" s="72" t="s">
+      <c r="D105" s="71" t="s">
         <v>268</v>
       </c>
-      <c r="E105" s="72"/>
-      <c r="F105" s="72"/>
+      <c r="E105" s="71"/>
+      <c r="F105" s="71"/>
     </row>
     <row r="106" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A106" s="140"/>
-      <c r="B106" s="71" t="s">
+      <c r="B106" s="70" t="s">
         <v>114</v>
       </c>
       <c r="C106" s="134" t="s">
@@ -29917,7 +29939,7 @@
     </row>
     <row r="107" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A107" s="140"/>
-      <c r="B107" s="71" t="s">
+      <c r="B107" s="70" t="s">
         <v>115</v>
       </c>
       <c r="C107" s="134" t="s">
@@ -29929,7 +29951,7 @@
     </row>
     <row r="108" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A108" s="140"/>
-      <c r="B108" s="71" t="s">
+      <c r="B108" s="70" t="s">
         <v>116</v>
       </c>
       <c r="C108" s="134" t="s">
@@ -29941,7 +29963,7 @@
     </row>
     <row r="109" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A109" s="140"/>
-      <c r="B109" s="71" t="s">
+      <c r="B109" s="70" t="s">
         <v>117</v>
       </c>
       <c r="C109" s="134" t="s">
@@ -29953,7 +29975,7 @@
     </row>
     <row r="110" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A110" s="140"/>
-      <c r="B110" s="71" t="s">
+      <c r="B110" s="70" t="s">
         <v>118</v>
       </c>
       <c r="C110" s="134" t="s">
@@ -29965,7 +29987,7 @@
     </row>
     <row r="111" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A111" s="140"/>
-      <c r="B111" s="71" t="s">
+      <c r="B111" s="70" t="s">
         <v>119</v>
       </c>
       <c r="C111" s="134" t="s">
@@ -29977,7 +29999,7 @@
     </row>
     <row r="112" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A112" s="140"/>
-      <c r="B112" s="71" t="s">
+      <c r="B112" s="70" t="s">
         <v>120</v>
       </c>
       <c r="C112" s="134" t="s">
@@ -29989,7 +30011,7 @@
     </row>
     <row r="113" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A113" s="140"/>
-      <c r="B113" s="71" t="s">
+      <c r="B113" s="70" t="s">
         <v>121</v>
       </c>
       <c r="C113" s="134" t="s">
@@ -30001,7 +30023,7 @@
     </row>
     <row r="114" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A114" s="140"/>
-      <c r="B114" s="71" t="s">
+      <c r="B114" s="70" t="s">
         <v>122</v>
       </c>
       <c r="C114" s="134" t="s">
@@ -30013,7 +30035,7 @@
     </row>
     <row r="115" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A115" s="140"/>
-      <c r="B115" s="71" t="s">
+      <c r="B115" s="70" t="s">
         <v>205</v>
       </c>
       <c r="C115" s="134" t="s">
@@ -30025,7 +30047,7 @@
     </row>
     <row r="116" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A116" s="140"/>
-      <c r="B116" s="71" t="s">
+      <c r="B116" s="70" t="s">
         <v>124</v>
       </c>
       <c r="C116" s="134" t="s">
@@ -30037,103 +30059,103 @@
     </row>
     <row r="117" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A117" s="140"/>
-      <c r="B117" s="71" t="s">
+      <c r="B117" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="C117" s="72" t="s">
+      <c r="C117" s="71" t="s">
         <v>267</v>
       </c>
-      <c r="D117" s="72" t="s">
+      <c r="D117" s="71" t="s">
         <v>268</v>
       </c>
-      <c r="E117" s="72"/>
-      <c r="F117" s="72"/>
+      <c r="E117" s="71"/>
+      <c r="F117" s="71"/>
     </row>
     <row r="118" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A118" s="140"/>
-      <c r="B118" s="71" t="s">
+      <c r="B118" s="70" t="s">
         <v>126</v>
       </c>
-      <c r="C118" s="72" t="s">
+      <c r="C118" s="71" t="s">
         <v>267</v>
       </c>
-      <c r="D118" s="72" t="s">
+      <c r="D118" s="71" t="s">
         <v>268</v>
       </c>
-      <c r="E118" s="72"/>
-      <c r="F118" s="72"/>
+      <c r="E118" s="71"/>
+      <c r="F118" s="71"/>
     </row>
     <row r="119" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A119" s="140"/>
-      <c r="B119" s="71" t="s">
+      <c r="B119" s="70" t="s">
         <v>127</v>
       </c>
-      <c r="C119" s="72" t="s">
+      <c r="C119" s="71" t="s">
         <v>267</v>
       </c>
-      <c r="D119" s="72" t="s">
+      <c r="D119" s="71" t="s">
         <v>268</v>
       </c>
-      <c r="E119" s="72"/>
-      <c r="F119" s="72"/>
+      <c r="E119" s="71"/>
+      <c r="F119" s="71"/>
     </row>
     <row r="120" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A120" s="140"/>
       <c r="B120" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="C120" s="72" t="s">
+      <c r="C120" s="71" t="s">
         <v>267</v>
       </c>
-      <c r="D120" s="72" t="s">
+      <c r="D120" s="71" t="s">
         <v>268</v>
       </c>
-      <c r="E120" s="72"/>
-      <c r="F120" s="72"/>
+      <c r="E120" s="71"/>
+      <c r="F120" s="71"/>
     </row>
     <row r="121" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A121" s="140"/>
       <c r="B121" s="60" t="s">
         <v>129</v>
       </c>
-      <c r="C121" s="72" t="s">
+      <c r="C121" s="71" t="s">
         <v>269</v>
       </c>
-      <c r="D121" s="72" t="s">
+      <c r="D121" s="71" t="s">
         <v>268</v>
       </c>
-      <c r="E121" s="72"/>
-      <c r="F121" s="72"/>
+      <c r="E121" s="71"/>
+      <c r="F121" s="71"/>
     </row>
     <row r="122" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A122" s="140"/>
       <c r="B122" s="60" t="s">
         <v>131</v>
       </c>
-      <c r="C122" s="72" t="s">
+      <c r="C122" s="71" t="s">
         <v>267</v>
       </c>
-      <c r="D122" s="72" t="s">
+      <c r="D122" s="71" t="s">
         <v>268</v>
       </c>
-      <c r="E122" s="72"/>
-      <c r="F122" s="72"/>
+      <c r="E122" s="71"/>
+      <c r="F122" s="71"/>
     </row>
     <row r="123" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A123" s="140"/>
       <c r="B123" s="57"/>
-      <c r="C123" s="72"/>
-      <c r="D123" s="72"/>
-      <c r="E123" s="72"/>
-      <c r="F123" s="72"/>
+      <c r="C123" s="71"/>
+      <c r="D123" s="71"/>
+      <c r="E123" s="71"/>
+      <c r="F123" s="71"/>
     </row>
     <row r="124" spans="1:6" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A124" s="140"/>
       <c r="B124" s="57"/>
-      <c r="C124" s="72"/>
-      <c r="D124" s="72"/>
-      <c r="E124" s="72"/>
-      <c r="F124" s="72"/>
+      <c r="C124" s="71"/>
+      <c r="D124" s="71"/>
+      <c r="E124" s="71"/>
+      <c r="F124" s="71"/>
     </row>
     <row r="125" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A125" s="148"/>
@@ -30198,14 +30220,14 @@
       <c r="B130" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="C130" s="76" t="s">
+      <c r="C130" s="75" t="s">
         <v>276</v>
       </c>
-      <c r="D130" s="76" t="s">
+      <c r="D130" s="75" t="s">
         <v>277</v>
       </c>
-      <c r="E130" s="76"/>
-      <c r="F130" s="76"/>
+      <c r="E130" s="75"/>
+      <c r="F130" s="75"/>
     </row>
     <row r="131" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A131" s="141"/>
@@ -30677,19 +30699,19 @@
       <c r="E2" s="167"/>
       <c r="F2" s="168"/>
     </row>
-    <row r="3" spans="1:6" s="70" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1">
+    <row r="3" spans="1:6" s="69" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="171"/>
       <c r="B3" s="172"/>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="68" t="s">
         <v>220</v>
       </c>
-      <c r="D3" s="69" t="s">
+      <c r="D3" s="68" t="s">
         <v>221</v>
       </c>
-      <c r="E3" s="69" t="s">
+      <c r="E3" s="68" t="s">
         <v>222</v>
       </c>
-      <c r="F3" s="69" t="s">
+      <c r="F3" s="68" t="s">
         <v>223</v>
       </c>
     </row>
@@ -32535,8 +32557,8 @@
       <c r="D143" s="64" t="s">
         <v>273</v>
       </c>
-      <c r="E143" s="77"/>
-      <c r="F143" s="77"/>
+      <c r="E143" s="76"/>
+      <c r="F143" s="76"/>
     </row>
     <row r="144" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A144" s="170"/>
@@ -32549,8 +32571,8 @@
       <c r="D144" s="64" t="s">
         <v>273</v>
       </c>
-      <c r="E144" s="77"/>
-      <c r="F144" s="77"/>
+      <c r="E144" s="76"/>
+      <c r="F144" s="76"/>
     </row>
     <row r="145" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A145" s="170"/>
@@ -32744,7 +32766,7 @@
     </row>
     <row r="160" spans="1:6" ht="15.6" thickTop="1" thickBot="1">
       <c r="A160" s="170"/>
-      <c r="B160" s="75" t="s">
+      <c r="B160" s="74" t="s">
         <v>192</v>
       </c>
       <c r="C160" s="64" t="s">
@@ -32756,16 +32778,16 @@
     </row>
     <row r="161" spans="2:7" ht="15" thickTop="1">
       <c r="B161" s="1"/>
-      <c r="C161" s="74"/>
-      <c r="D161" s="73"/>
-      <c r="E161" s="74"/>
-      <c r="F161" s="74"/>
+      <c r="C161" s="73"/>
+      <c r="D161" s="72"/>
+      <c r="E161" s="73"/>
+      <c r="F161" s="73"/>
       <c r="G161" s="1"/>
     </row>
     <row r="162" spans="2:7">
-      <c r="C162" s="74"/>
-      <c r="D162" s="74"/>
-      <c r="F162" s="74"/>
+      <c r="C162" s="73"/>
+      <c r="D162" s="73"/>
+      <c r="F162" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="66">
